--- a/Assets/100_Data/XlsxFiles/Research_Data.xlsx
+++ b/Assets/100_Data/XlsxFiles/Research_Data.xlsx
@@ -29,7 +29,7 @@
     <author>HOME2</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,42 @@
   </si>
   <si>
     <t>ResearchAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_UpProduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Drill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_UpProduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Drill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,10 +264,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Id"/>
+    <tableColumn id="7" name="Name"/>
     <tableColumn id="2" name="DisplayName"/>
     <tableColumn id="3" name="ResearchAmount"/>
     <tableColumn id="5" name="InputItemPerTickId"/>
@@ -505,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,180 +558,207 @@
     <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30001</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>750</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1002</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30002</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1004</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>30001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30003</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1004</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>30001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30004</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1004</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>30001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30005</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>4500</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1004</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>30001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>30006</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1006</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>30002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30007</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1006</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>30002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>30008</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1006</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>30002</v>
       </c>
     </row>
